--- a/f.xlsx
+++ b/f.xlsx
@@ -4,110 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="Report" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="Data" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>ID Мерчанта</t>
-  </si>
-  <si>
-    <t>Код товара продавца (offerId)</t>
-  </si>
-  <si>
-    <t>Артикул Мегамаркет (МегамаркетId)</t>
-  </si>
-  <si>
-    <t>Остаток на складе</t>
-  </si>
-  <si>
-    <t>Статус</t>
-  </si>
-  <si>
-    <t>Наименование мерчанта</t>
-  </si>
-  <si>
-    <t>Мегамаркет name</t>
-  </si>
-  <si>
-    <t>Штрихкод мерчанта</t>
-  </si>
-  <si>
-    <t>Штрихкод Мегамаркет</t>
-  </si>
-  <si>
-    <t>Бренд мерчанта</t>
-  </si>
-  <si>
-    <t>Бренд Мегамаркет</t>
-  </si>
-  <si>
-    <t>Вендор код (артикул производителя)</t>
-  </si>
-  <si>
-    <t>Артикул Мегамаркет</t>
-  </si>
-  <si>
-    <t>Модель мерчанта</t>
-  </si>
-  <si>
-    <t>Модель Мегамаркет</t>
-  </si>
-  <si>
-    <t>Причина несоответствия</t>
-  </si>
-  <si>
-    <t>Вес предложения</t>
-  </si>
-  <si>
-    <t>Категория мерчанта</t>
-  </si>
-  <si>
-    <t>Категория Мегамаркет</t>
-  </si>
-  <si>
-    <t>ID категории Мегамаркет</t>
-  </si>
-  <si>
-    <t>Cсылка на фото</t>
-  </si>
-  <si>
-    <t>Тарифная ставка, %</t>
-  </si>
-  <si>
-    <t>Минимальная комиссия, руб</t>
-  </si>
-  <si>
-    <t>Дата начала действия</t>
-  </si>
-  <si>
-    <t>Мерчант-Оффер</t>
-  </si>
-  <si>
-    <t>https://megamarket.ru/catalog/details/disk-po-derevu-dlya-diskovyh-pil-metabo-628012000-100000077831/</t>
-  </si>
-  <si>
-    <t>https://megamarket.ru/catalog/details/list-dlya-vibracionnoy-shlifovalnoy-mashiny-metabo-626647000-100000078197/#?related_search=%D0%BB%D0%B8%D1%81%D1%82%D1%8B%20%D1%88%D0%BB%D0%B8%D1%84%D0%BE%D0%B2%D0%B0%D0%BB%D1%8C%D0%BD%D1%8B%D0%B5%20metabo%20225mm</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
       <scheme val="minor"/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
     </font>
   </fonts>
   <fills count="2">
@@ -118,7 +29,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -126,20 +37,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,114 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
+  <dimension ref="A1:A1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <cols>
-    <col min="1" max="25" width="36" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:Y1"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
--- a/f.xlsx
+++ b/f.xlsx
@@ -4,10 +4,156 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="Data" state="visible" r:id="rId3"/>
+    <sheet sheetId="1" name="Data" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+  <si>
+    <t>https://megamarket.ru/catalog/details/list-dlya-vibracionnoy-shlifovalnoy-mashiny-metabo-626647000-100000078197/#?related_search=%D0%BB%D0%B8%D1%81%D1%82%D1%8B%20%D1%88%D0%BB%D0%B8%D1%84%D0%BE%D0%B2%D0%B0%D0%BB%D1%8C%D0%BD%D1%8B%D0%B5%20metabo%20225mm</t>
+  </si>
+  <si>
+    <t>https://megamarket.ru/catalog/details/disk-almaznyy-otreznoy-master-seramic-250h14h254-mm-hilberg-hm507-100057398319/#?related_search=%D0%B4%D0%B8%D1%81%D0%BA%20%D0%B0%D0%BB%D0%BC%D0%B0%D0%B7%D0%BD%D1%8B%D0%B9%20hilberg</t>
+  </si>
+  <si>
+    <t>https://megamarket.ru/catalog/details/hilberg-disk-almaznyy-otreznoy-1252223-millimeter-10-mm-hm01-100055943018/#?related_search=%D0%B4%D0%B8%D1%81%D0%BA%20%D0%B0%D0%BB%D0%BC%D0%B0%D0%B7%D0%BD%D1%8B%D0%B9%20hilberg</t>
+  </si>
+  <si>
+    <t>https://megamarket.ru/catalog/details/disk-almaznyy-hilberg-hm420-125-x-11-x-2223-89785454-600015275369/#?related_search=%D0%B4%D0%B8%D1%81%D0%BA%20%D0%B0%D0%BB%D0%BC%D0%B0%D0%B7%D0%BD%D1%8B%D0%B9%20hilberg</t>
+  </si>
+  <si>
+    <t>https://megamarket.ru/catalog/details/hilberg-almaznyy-disk-hilberg-ultratonkiy-turbo-x-tip-125-mm-nm402-600008496390/#?related_search=%D0%B4%D0%B8%D1%81%D0%BA%20%D0%B0%D0%BB%D0%BC%D0%B0%D0%B7%D0%BD%D1%8B%D0%B9%20hilberg</t>
+  </si>
+  <si>
+    <t>https://megamarket.ru/catalog/details/disk-almaznyy-otreznoy-200254-hilberg-master-seramic-hm505-600009410836/#?related_search=%D0%B4%D0%B8%D1%81%D0%BA%20%D0%B0%D0%BB%D0%BC%D0%B0%D0%B7%D0%BD%D1%8B%D0%B9%20hilberg</t>
+  </si>
+  <si>
+    <t>https://megamarket.ru/catalog/details/hilberg-disk-almaznyy-otreznoy-125m14-super-ceramic-flange-hm514-100040899795/#?related_search=%D0%B4%D0%B8%D1%81%D0%BA%20%D0%B0%D0%BB%D0%BC%D0%B0%D0%B7%D0%BD%D1%8B%D0%B9%20hilberg</t>
+  </si>
+  <si>
+    <t>https://megamarket.ru/catalog/details/hilberg-almaznyy-disk-hilberg-ultratonkiy-turbo-x-tip-115-mm-100041415546/#?related_search=%D0%B4%D0%B8%D1%81%D0%BA%20%D0%B0%D0%BB%D0%BC%D0%B0%D0%B7%D0%BD%D1%8B%D0%B9%20hilberg</t>
+  </si>
+  <si>
+    <t>https://megamarket.ru/catalog/details/akkumulyatornaya-besshetochnaya-drel-shurupovert-ayger-18-v-1450-ob-min-ap18blm-600016074607/#?related_search=ayger%20%D0%B4%D1%80%D0%B5%D0%BB%D1%8C%20%D1%88%D1%80%D1%83%D0%BF%D0%BE%D0%B2%D0%B5%D1%80%D1%82%20ap%2018%20blm</t>
+  </si>
+  <si>
+    <t>https://megamarket.ru/catalog/details/disk-almaznyy-otreznoy-extra-thin-115h2223-mm-hilberg-hm410-100041854520/#?related_search=%D0%B4%D0%B8%D1%81%D0%BA%20%D0%B0%D0%BB%D0%BC%D0%B0%D0%B7%D0%BD%D1%8B%D0%B9%20hilberg</t>
+  </si>
+  <si>
+    <t>https://megamarket.ru/catalog/details/disk-hilberg-master-ceramic-125x2223-almaznyy-otreznoy-hm522-600006932184/#?related_search=%D0%B4%D0%B8%D1%81%D0%BA%20%D0%B0%D0%BB%D0%BC%D0%B0%D0%B7%D0%BD%D1%8B%D0%B9%20hilberg</t>
+  </si>
+  <si>
+    <t>https://megamarket.ru/catalog/details/disk-almaznyy-otreznoy-segmentnyy-hard-materials-laser-400x254-mm-hilberg-hm109-100041865796/#?related_search=%D0%B4%D0%B8%D1%81%D0%BA%20%D0%B0%D0%BB%D0%BC%D0%B0%D0%B7%D0%BD%D1%8B%D0%B9%20hilberg</t>
+  </si>
+  <si>
+    <t>https://megamarket.ru/catalog/details/hilberg-disk-almaznyy-otreznoy-125x2223-hilberg-sploshnoy-ultratonkiy-hm502-100040889541/#?related_search=%D0%B4%D0%B8%D1%81%D0%BA%20%D0%B0%D0%BB%D0%BC%D0%B0%D0%B7%D0%BD%D1%8B%D0%B9%20hilberg</t>
+  </si>
+  <si>
+    <t>https://megamarket.ru/catalog/details/hilberg-disk-almaznyy-otreznoy-200x254-2223turbo-ultratonkiy-h-tip-hm405-100048100103/#?related_search=%D0%B4%D0%B8%D1%81%D0%BA%20%D0%B0%D0%BB%D0%BC%D0%B0%D0%B7%D0%BD%D1%8B%D0%B9%20hilberg</t>
+  </si>
+  <si>
+    <t>https://megamarket.ru/catalog/details/hilberg-disk-almaznyy-otreznoy-125x2223-hilberg-turbo-ultratonkiy-s-tip-hm602-100040887954/#?related_search=%D0%B4%D0%B8%D1%81%D0%BA%20%D0%B0%D0%BB%D0%BC%D0%B0%D0%B7%D0%BD%D1%8B%D0%B9%20hilberg</t>
+  </si>
+  <si>
+    <t>https://megamarket.ru/catalog/details/disk-almaznyy-otreznoy-revolution-125h2223h12-mm-hilberg-hmr802-100057837176/#?related_search=%D0%B4%D0%B8%D1%81%D0%BA%20%D0%B0%D0%BB%D0%BC%D0%B0%D0%B7%D0%BD%D1%8B%D0%B9%20hilberg</t>
+  </si>
+  <si>
+    <t>https://megamarket.ru/catalog/details/almaznyy-disk-hilberg-ultratonkiy-turbo-x-tip-o250-mm-hm407-600008837082/#?related_search=%D0%B4%D0%B8%D1%81%D0%BA%20%D0%B0%D0%BB%D0%BC%D0%B0%D0%B7%D0%BD%D1%8B%D0%B9%20hilberg</t>
+  </si>
+  <si>
+    <t>https://megamarket.ru/catalog/details/disk-almaznyy-otreznoy-diamant-230h2223-turbo-ultra-tonkiy-hilberg-h-tip-hm406-100038735277/#?related_search=%D0%B4%D0%B8%D1%81%D0%BA%20%D0%B0%D0%BB%D0%BC%D0%B0%D0%B7%D0%BD%D1%8B%D0%B9%20hilberg</t>
+  </si>
+  <si>
+    <t>https://megamarket.ru/catalog/details/hilberg-disk-almaznyy-otreznoy-350x254x12-hilberg-hard-materials-lazer-hm108-100040889016/#?related_search=%D0%B4%D0%B8%D1%81%D0%BA%20%D0%B0%D0%BB%D0%BC%D0%B0%D0%B7%D0%BD%D1%8B%D0%B9%20hilberg</t>
+  </si>
+  <si>
+    <t>https://megamarket.ru/catalog/details/hilberg-disk-almaznyy-otreznoy-450x254x12hard-materials-lazer-hm110-100048100107/#?related_search=%D0%B4%D0%B8%D1%81%D0%BA%20%D0%B0%D0%BB%D0%BC%D0%B0%D0%B7%D0%BD%D1%8B%D0%B9%20hilberg</t>
+  </si>
+  <si>
+    <t>https://megamarket.ru/catalog/details/hilberg-disk-almaznyy-otreznoy-35025412hard-materials-lazer-asfalt-hm308-100048100104/#?related_search=%D0%B4%D0%B8%D1%81%D0%BA%20%D0%B0%D0%BB%D0%BC%D0%B0%D0%B7%D0%BD%D1%8B%D0%B9%20hilberg</t>
+  </si>
+  <si>
+    <t>https://megamarket.ru/catalog/details/hilberg-disk-almaznyy-otreznoy-45025412hard-materials-lazer-asfalt-hm310-100048100106/#?related_search=%D0%B4%D0%B8%D1%81%D0%BA%20%D0%B0%D0%BB%D0%BC%D0%B0%D0%B7%D0%BD%D1%8B%D0%B9%20hilberg</t>
+  </si>
+  <si>
+    <t>https://megamarket.ru/catalog/details/hilberg-disk-almaznyy-otreznoy-350x254x12universal-hm708-100047325777/#?related_search=%D0%B4%D0%B8%D1%81%D0%BA%20%D0%B0%D0%BB%D0%BC%D0%B0%D0%B7%D0%BD%D1%8B%D0%B9%20hilberg</t>
+  </si>
+  <si>
+    <t>https://megamarket.ru/catalog/details/hilberg-disk-almaznyy-otreznoy-35025412industrial-hard-hi808-100047325331/#?related_search=%D0%B4%D0%B8%D1%81%D0%BA%20%D0%B0%D0%BB%D0%BC%D0%B0%D0%B7%D0%BD%D1%8B%D0%B9%20hilberg</t>
+  </si>
+  <si>
+    <t>https://megamarket.ru/catalog/details/hilberg-disk-almaznyy-otreznoy-180x254hyper-thin-12-mm-hm540-100048100102/#?related_search=%D0%B4%D0%B8%D1%81%D0%BA%20%D0%B0%D0%BB%D0%BC%D0%B0%D0%B7%D0%BD%D1%8B%D0%B9%20hilberg</t>
+  </si>
+  <si>
+    <t>https://megamarket.ru/catalog/details/hilberg-disk-almaznyy-otreznoy-45025412industrial-hard-hi810-100047325333/#?related_search=%D0%B4%D0%B8%D1%81%D0%BA%20%D0%B0%D0%BB%D0%BC%D0%B0%D0%B7%D0%BD%D1%8B%D0%B9%20hilberg</t>
+  </si>
+  <si>
+    <t>https://megamarket.ru/catalog/details/disk-almaznyy-otreznoy-hilberg-laser-asphalt-lazer-asfalt-300h254-mm-hm307-600013373621/#?related_search=%D0%B4%D0%B8%D1%81%D0%BA%20%D0%B0%D0%BB%D0%BC%D0%B0%D0%B7%D0%BD%D1%8B%D0%B9%20hilberg</t>
+  </si>
+  <si>
+    <t>https://megamarket.ru/catalog/details/disk-almaznyy-otreznoy-hilberg-revolution-230h12h2223-mm-hmr806-turbosegmentirovannyy-600013375906/#?related_search=%D0%B4%D0%B8%D1%81%D0%BA%20%D0%B0%D0%BB%D0%BC%D0%B0%D0%B7%D0%BD%D1%8B%D0%B9%20hilberg</t>
+  </si>
+  <si>
+    <t>https://megamarket.ru/catalog/details/disk-almaznyy-otreznoy-hilberg-20025-4-hilberg-hyper-thin-1-2-mm-hm550-600008525323/#?related_search=%D0%B4%D0%B8%D1%81%D0%BA%20%D0%B0%D0%BB%D0%BC%D0%B0%D0%B7%D0%BD%D1%8B%D0%B9%20hilberg</t>
+  </si>
+  <si>
+    <t>https://megamarket.ru/catalog/details/perforator-ayger-ah1000-600004791200/#?related_search=ayger%20%D0%BF%D0%B5%D1%80%D1%84%D0%BE%D1%80%D0%B0%D1%82%D0%BE%D1%80%20%20ah1000</t>
+  </si>
+  <si>
+    <t>https://megamarket.ru/catalog/details/perforator-ayger-ah1000dfr-600004791201/#?related_search=ayger%20%D0%BF%D0%B5%D1%80%D1%84%D0%BE%D1%80%D0%B0%D1%82%D0%BE%D1%80%20%20ah1000</t>
+  </si>
+  <si>
+    <t>https://megamarket.ru/catalog/details/akkumulyatornaya-drel-shurupovert-ayger-ap18m-600016052584/#?related_search=ayger%20%D0%B4%D1%80%D0%B5%D0%BB%D1%8C%20%D1%88%D1%80%D1%83%D0%BF%D0%BE%D0%B2%D0%B5%D1%80%D1%82%20%D0%B0%D1%8018blm</t>
+  </si>
+  <si>
+    <t>https://megamarket.ru/catalog/details/pylesos-stroitelnyy-ayger-cvc-30l-600013658965/#?related_search=ayger%20%D0%BF%D1%8B%D0%BB%D0%B5%D1%81%D0%BE%D1%81%20%D1%81%D1%82%D1%80%D0%BE%D0%B8%D1%82%D0%B5%D0%BB%D0%BD%D1%8B%D0%B9%20cvc-30l</t>
+  </si>
+  <si>
+    <t>https://megamarket.ru/catalog/details/filtr-meshki-smennye-sinteticheskie-ayger-032-workmaster-ps-1500-30r-600006937376/#?related_search=ayger%20032</t>
+  </si>
+  <si>
+    <t>https://megamarket.ru/catalog/details/elektricheskiy-stroitelnyy-pylesos-workmaster-ps-1500-25r-100057208120/#?related_search=workmaster%20%D0%BF%D1%81-1500/25</t>
+  </si>
+  <si>
+    <t>https://megamarket.ru/catalog/details/ayger-maslo-mineralnoe-dlya-2-taktnyh-dvigateley-api-tc-1l-dozatornaya-kanistra-32999-100043048578/#?related_search=ayger%20api%20%20tc%201%D0%BB</t>
+  </si>
+  <si>
+    <t>https://megamarket.ru/catalog/details/toua-ballon-na-1000-gvozdey-165a-zel-standart-toua-fcgs-100039699299/#?related_search=%D0%B1%D0%B0%D0%BB%D0%BE%D0%BD%20%D0%BD%D0%B0%201000%20%D0%B3%D0%B2%D0%BE%D0%B7%D0%B4%D0%B5%D0%B9%20165%D0%B0%20%D0%B7%D0%B5%D0%BB.%20%D1%81%D1%82%D0%B0%D0%BD%D0%B4%D0%B0%D1%80%D1%82%20toua</t>
+  </si>
+  <si>
+    <t>https://megamarket.ru/catalog/details/nasadka-milwaukee-shockwave-ph2-50mm-3sht-600015090954/#?related_search=%D0%BD%D0%B0%D1%81%D0%B0%D0%B4%D0%BA%D0%B0%20milwaukee%20shockwave%20ph2%2050mm</t>
+  </si>
+  <si>
+    <t>https://megamarket.ru/catalog/details/gvozdi-po-betonu-toua-mg-bullet-point-305h25-mm-1000-sht-100047856436/#?related_search=%D0%B3%D0%B2%D0%BE%D0%B7%D0%B4%D0%B8%20%D0%BF%D0%BE%20%D0%B1%D0%B5%D1%82%D0%BE%D0%BD%D1%83%20toua%20cn%20eg%20bullet%20point%203%2005%C3%9725mm</t>
+  </si>
+  <si>
+    <t>https://megamarket.ru/catalog/details/usilennye-gvozdi-po-betonu-toua-305h25-mm-1000-sht-100047418531/#?related_search=%D0%B3%D0%B2%D0%BE%D0%B7%D0%B4%D0%B8%20%D0%BF%D0%BE%20%D0%B1%D0%B5%D1%82%D0%BE%D0%BD%D1%83%20toua%20cn%20eg%20bullet%20point%203%2005%C3%9725mm</t>
+  </si>
+  <si>
+    <t>https://megamarket.ru/catalog/details/kley-montazhnyy-classic-fix-prozrachnyy-100-ml-tytan-professional-600004855037/#?related_search=%D0%B3%D0%B2%D0%BE%D0%B7%D0%B4%D0%B8%20%D0%BF%D0%BE%20%D0%B1%D0%B5%D1%82%D0%BE%D0%BD%D1%83%20toua%20cn%20eg%20bullet%20point%203%2005%C3%9725mm</t>
+  </si>
+  <si>
+    <t>https://megamarket.ru/catalog/details/anker-klin-anker-gvozd-m6h40-upak-100sht-100035852070/#?related_search=%D0%B3%D0%B2%D0%BE%D0%B7%D0%B4%D0%B8%20%D0%BF%D0%BE%20%D0%B1%D0%B5%D1%82%D0%BE%D0%BD%D1%83%20toua%20cn%20eg%20bullet%20point%203%2005%C3%9725mm</t>
+  </si>
+  <si>
+    <t>https://megamarket.ru/catalog/details/perforator-makita-hr2470x15-100022771166/</t>
+  </si>
+  <si>
+    <t>https://megamarket.ru/catalog/details/setevaya-torcovochnaya-pila-zubr-zpt-255-1800-pl-100000066140/</t>
+  </si>
+  <si>
+    <t>https://megamarket.ru/catalog/details/setevaya-torcovochnaya-pila-zubr-zpt-210-1400-l-100000066136/</t>
+  </si>
+  <si>
+    <t>https://megamarket.ru/catalog/details/pila-cirkulyarnaya-zubr-pdp-55-professional-600001936197/</t>
+  </si>
+  <si>
+    <t>https://megamarket.ru/catalog/details/setevoy-perforator-sds-plus-makita-hr2470-100000107707/</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,10 +528,395 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B48"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>7550</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>6970</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>7920</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>7920</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>10990</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>3940</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>11980</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>15790</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>16690</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>12230</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>10650</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>14970</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>9200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>4020</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>5940</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>6390</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>5390</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>10100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>8760</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>19999</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>